--- a/99. Login Management/Login Management.xlsx
+++ b/99. Login Management/Login Management.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.kuang\Documents\Work\01. Project\Startup\talent\Login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.kuang\Documents\Work\01. Project\Startup\talent\99. Login Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7721914-8776-4136-810B-4E226E3E09A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DBE9B9-9FE7-4EC8-9012-BFC5467F4E5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Gmail</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>winningteam001</t>
+  </si>
+  <si>
+    <t>firebase.google.com</t>
+  </si>
+  <si>
+    <t>Database</t>
   </si>
 </sst>
 </file>
@@ -398,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,6 +476,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{3B0A0797-D6CF-4C84-98FC-0034D1AE2521}"/>
@@ -477,6 +494,7 @@
     <hyperlink ref="B3" r:id="rId3" xr:uid="{C187BC9D-AE70-4A67-80E5-44A106027EB6}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{8163A0CF-C574-4964-808E-995ECB7EB839}"/>
     <hyperlink ref="B4" r:id="rId5" xr:uid="{EA9F9089-59BF-4FB5-A7F8-FCCE221934F1}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{2C06DA92-E45D-4713-9A84-F94BCAC88D0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
